--- a/excel/penarikan_uang.xlsx
+++ b/excel/penarikan_uang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/OttoCash-Mobile/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/GitHub/Wolverine/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406DFC4A-0FE7-B241-9631-0DC5A5CE4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC412A8-F29D-F746-977C-5FEE14FD9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{99A713CA-5878-A34A-8F94-9CB0BAB3F532}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>BANK MANDIRI</t>
   </si>
@@ -65,13 +65,13 @@
     <t>nominal</t>
   </si>
   <si>
-    <t>9980100019281</t>
-  </si>
-  <si>
     <t>5675445667</t>
   </si>
   <si>
-    <t>001101912000</t>
+    <t>1234509876</t>
+  </si>
+  <si>
+    <t>BANK CIMB NIAGA</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6EFF1-C3F2-8A4F-941C-77C177A54745}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,25 +447,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +511,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>35000</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>23000</v>
@@ -540,7 +573,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/penarikan_uang.xlsx
+++ b/excel/penarikan_uang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/GitHub/Wolverine/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/OttoCash-Mobile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC412A8-F29D-F746-977C-5FEE14FD9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406DFC4A-0FE7-B241-9631-0DC5A5CE4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{99A713CA-5878-A34A-8F94-9CB0BAB3F532}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>BANK MANDIRI</t>
   </si>
@@ -65,13 +65,13 @@
     <t>nominal</t>
   </si>
   <si>
+    <t>9980100019281</t>
+  </si>
+  <si>
     <t>5675445667</t>
   </si>
   <si>
-    <t>1234509876</t>
-  </si>
-  <si>
-    <t>BANK CIMB NIAGA</t>
+    <t>001101912000</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6EFF1-C3F2-8A4F-941C-77C177A54745}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,58 +447,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +478,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>33500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,10 +521,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>23000</v>
@@ -573,7 +540,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
